--- a/Data/variants_chaperones/chaperones.xlsx
+++ b/Data/variants_chaperones/chaperones.xlsx
@@ -403,7 +403,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -431,14 +431,6 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -560,11 +552,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -588,7 +580,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A2:A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
